--- a/outputs-HGR-r202/train-g__Mediterraneibacter_split_pruned.xlsx
+++ b/outputs-HGR-r202/train-g__Mediterraneibacter_split_pruned.xlsx
@@ -10,6 +10,7 @@
     <sheet name="quadratic-svm-score4" sheetId="3" r:id="rId5"/>
     <sheet name="quadratic-svm-score3" sheetId="4" r:id="rId6"/>
     <sheet name="quadratic-svm-score2" sheetId="5" r:id="rId7"/>
+    <sheet name="quadratic-svm-score1" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="638">
   <si>
     <t>Row</t>
   </si>
@@ -1556,6 +1557,381 @@
   </si>
   <si>
     <t>label_GCF_000209405_4.fasta</t>
+  </si>
+  <si>
+    <t>label_13414_6_17_4.fasta</t>
+  </si>
+  <si>
+    <t>label_13414_6_17_6.fasta</t>
+  </si>
+  <si>
+    <t>label_13414_6_17_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1659_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1659_102.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1659_104.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1659_105.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1659_106.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1659_107.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1659_112.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1659_114.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1659_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1659_122.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1659_124.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1659_126.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1659_131.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1659_134.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1659_137.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1659_145.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1659_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1659_151.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1659_152.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1659_155.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1659_157.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1659_159.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1659_165.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1659_166.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1659_170.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1659_171.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1659_175.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1659_180.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1659_184.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1659_19.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1659_190.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1659_192.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1659_194.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1659_195.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1659_197.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1659_198.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1659_21.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1659_210.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1659_24.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1659_37.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1659_55.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1659_56.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1659_58.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1659_64.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1659_66.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1659_68.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1659_7.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1659_73.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1659_77.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1659_89.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1659_99.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000155205_12.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000155205_30.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000155205_32.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000155205_36.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000155205_38.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000155205_4.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000155205_5.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000155205_7.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_001487105_1.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_001487105_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS362_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS362_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS362_19.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS362_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS362_27.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS362_28.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS362_36.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS362_42.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS362_44.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS362_45.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS362_70.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1662_1.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1662_102.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1662_103.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1662_109.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1662_111.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1662_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1662_121.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1662_13.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1662_130.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1662_131.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1662_135.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1662_137.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1662_28.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1662_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1662_39.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1662_46.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1662_50.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1662_53.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1662_63.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1662_64.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1662_66.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1662_8.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1662_83.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1662_91.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1811_105.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1811_108.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1811_109.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1811_11.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1811_111.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1811_119.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1811_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1811_27.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1811_29.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1811_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1811_34.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1811_36.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1811_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1811_48.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1811_53.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1811_54.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1811_62.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1811_63.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1811_66.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1811_67.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1811_71.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1811_86.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1811_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1811_98.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000209405_0.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000209405_2.fasta</t>
   </si>
 </sst>
 </file>
@@ -1576,7 +1952,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1592,11 +1968,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -1606,6 +1984,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17919,4 +18299,4057 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J126"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" customWidth="true"/>
+    <col min="2" max="2" width="26.85546875" customWidth="true"/>
+    <col min="3" max="3" width="28" customWidth="true"/>
+    <col min="4" max="4" width="32.42578125" customWidth="true"/>
+    <col min="5" max="5" width="32.7109375" customWidth="true"/>
+    <col min="6" max="6" width="32.7109375" customWidth="true"/>
+    <col min="7" max="7" width="32.7109375" customWidth="true"/>
+    <col min="8" max="8" width="28.5703125" customWidth="true"/>
+    <col min="9" max="9" width="10.28515625" customWidth="true"/>
+    <col min="10" max="10" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="B2">
+        <v>0.86799335599071248</v>
+      </c>
+      <c r="C2">
+        <v>0.039154890353478654</v>
+      </c>
+      <c r="D2">
+        <v>0.0022195599022803592</v>
+      </c>
+      <c r="E2">
+        <v>0.00084127047422467643</v>
+      </c>
+      <c r="F2">
+        <v>9.089886548527089e-05</v>
+      </c>
+      <c r="G2">
+        <v>4.9437607894002173e-05</v>
+      </c>
+      <c r="H2">
+        <v>0.089650586805924498</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="B3">
+        <v>0.98185937182283223</v>
+      </c>
+      <c r="C3">
+        <v>0.014218713057852524</v>
+      </c>
+      <c r="D3">
+        <v>0.0025393304303605868</v>
+      </c>
+      <c r="E3">
+        <v>2.0273973205842781e-05</v>
+      </c>
+      <c r="F3">
+        <v>2.9679681419183268e-05</v>
+      </c>
+      <c r="G3">
+        <v>0.00030117148452212753</v>
+      </c>
+      <c r="H3">
+        <v>0.0010314595498075792</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="B4">
+        <v>0.95777080569282891</v>
+      </c>
+      <c r="C4">
+        <v>0.025085042589054009</v>
+      </c>
+      <c r="D4">
+        <v>0.0024316972632791862</v>
+      </c>
+      <c r="E4">
+        <v>3.3788944525928149e-05</v>
+      </c>
+      <c r="F4">
+        <v>0.0014535429932771482</v>
+      </c>
+      <c r="G4">
+        <v>0.0002052184022600733</v>
+      </c>
+      <c r="H4">
+        <v>0.013019904114774706</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="B5">
+        <v>0.97028954415919455</v>
+      </c>
+      <c r="C5">
+        <v>0.022376867416666356</v>
+      </c>
+      <c r="D5">
+        <v>0.0043068630333208888</v>
+      </c>
+      <c r="E5">
+        <v>0.00023992713210166351</v>
+      </c>
+      <c r="F5">
+        <v>0.00029161672988644937</v>
+      </c>
+      <c r="G5">
+        <v>0.0018388322800527962</v>
+      </c>
+      <c r="H5">
+        <v>0.00065634924877739883</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="B6">
+        <v>0.9046056869458633</v>
+      </c>
+      <c r="C6">
+        <v>0.089177223010218257</v>
+      </c>
+      <c r="D6">
+        <v>0.0012267999981841122</v>
+      </c>
+      <c r="E6">
+        <v>0.0015431193024625105</v>
+      </c>
+      <c r="F6">
+        <v>0.00053104268120044806</v>
+      </c>
+      <c r="G6">
+        <v>0.0022167171262747914</v>
+      </c>
+      <c r="H6">
+        <v>0.00069941093579666989</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="B7">
+        <v>0.98454421928504809</v>
+      </c>
+      <c r="C7">
+        <v>0.0041081336824341508</v>
+      </c>
+      <c r="D7">
+        <v>0.0011853723265174605</v>
+      </c>
+      <c r="E7">
+        <v>0.0068617891955469346</v>
+      </c>
+      <c r="F7">
+        <v>3.8862360560730512e-05</v>
+      </c>
+      <c r="G7">
+        <v>0.0023007510497415587</v>
+      </c>
+      <c r="H7">
+        <v>0.00096087210015132569</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="B8">
+        <v>0.7201617834402777</v>
+      </c>
+      <c r="C8">
+        <v>0.022596577944634811</v>
+      </c>
+      <c r="D8">
+        <v>0.003940403073530452</v>
+      </c>
+      <c r="E8">
+        <v>0.21655110786019832</v>
+      </c>
+      <c r="F8">
+        <v>0.0048194925122825054</v>
+      </c>
+      <c r="G8">
+        <v>0.028725857080424744</v>
+      </c>
+      <c r="H8">
+        <v>0.0032047780886513707</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="B9">
+        <v>0.72457884102841497</v>
+      </c>
+      <c r="C9">
+        <v>0.047755512622587454</v>
+      </c>
+      <c r="D9">
+        <v>0.0051113259361267212</v>
+      </c>
+      <c r="E9">
+        <v>0.041148768482006617</v>
+      </c>
+      <c r="F9">
+        <v>0.13598806812087316</v>
+      </c>
+      <c r="G9">
+        <v>0.041040846796852978</v>
+      </c>
+      <c r="H9">
+        <v>0.0043766370131380758</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="B10">
+        <v>0.9807109632323403</v>
+      </c>
+      <c r="C10">
+        <v>0.0086690394089240161</v>
+      </c>
+      <c r="D10">
+        <v>0.0017868738123909349</v>
+      </c>
+      <c r="E10">
+        <v>0.0037736331848600086</v>
+      </c>
+      <c r="F10">
+        <v>2.244567422603844e-05</v>
+      </c>
+      <c r="G10">
+        <v>0.0030765517490305419</v>
+      </c>
+      <c r="H10">
+        <v>0.0019604929382281825</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="B11">
+        <v>0.9834914164541827</v>
+      </c>
+      <c r="C11">
+        <v>0.013456321389752257</v>
+      </c>
+      <c r="D11">
+        <v>0.00095254983084237755</v>
+      </c>
+      <c r="E11">
+        <v>0.00036790966690923365</v>
+      </c>
+      <c r="F11">
+        <v>0.00053659967730698178</v>
+      </c>
+      <c r="G11">
+        <v>0.00048323913463043505</v>
+      </c>
+      <c r="H11">
+        <v>0.0007119638463761234</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="B12">
+        <v>0.98522043972775963</v>
+      </c>
+      <c r="C12">
+        <v>0.0048263899155414468</v>
+      </c>
+      <c r="D12">
+        <v>0.0011625214274937103</v>
+      </c>
+      <c r="E12">
+        <v>0.0061629689180592202</v>
+      </c>
+      <c r="F12">
+        <v>6.5429378183474201e-05</v>
+      </c>
+      <c r="G12">
+        <v>0.0016273571680821869</v>
+      </c>
+      <c r="H12">
+        <v>0.00093489346488041781</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="B13">
+        <v>0.99277094942545874</v>
+      </c>
+      <c r="C13">
+        <v>0.0049135152528257398</v>
+      </c>
+      <c r="D13">
+        <v>0.001252159469703233</v>
+      </c>
+      <c r="E13">
+        <v>0.00011521334493151622</v>
+      </c>
+      <c r="F13">
+        <v>4.9131683258560605e-05</v>
+      </c>
+      <c r="G13">
+        <v>0.00050904517110082965</v>
+      </c>
+      <c r="H13">
+        <v>0.00038998565272146577</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="B14">
+        <v>0.91900174768138065</v>
+      </c>
+      <c r="C14">
+        <v>0.025893710080063369</v>
+      </c>
+      <c r="D14">
+        <v>0.0022420041218860613</v>
+      </c>
+      <c r="E14">
+        <v>0.011536536064571869</v>
+      </c>
+      <c r="F14">
+        <v>0.0038519328944691977</v>
+      </c>
+      <c r="G14">
+        <v>0.035104800590360891</v>
+      </c>
+      <c r="H14">
+        <v>0.0023692685672679773</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="B15">
+        <v>0.98206048092902265</v>
+      </c>
+      <c r="C15">
+        <v>0.011460648746324013</v>
+      </c>
+      <c r="D15">
+        <v>0.0010506983257645818</v>
+      </c>
+      <c r="E15">
+        <v>0.0026824071760532153</v>
+      </c>
+      <c r="F15">
+        <v>7.0820122707703485e-05</v>
+      </c>
+      <c r="G15">
+        <v>0.0012496793161426132</v>
+      </c>
+      <c r="H15">
+        <v>0.0014252653839854307</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="B16">
+        <v>0.7890524444340643</v>
+      </c>
+      <c r="C16">
+        <v>0.082071131756730711</v>
+      </c>
+      <c r="D16">
+        <v>0.0029589237134834464</v>
+      </c>
+      <c r="E16">
+        <v>0.0090599599426104856</v>
+      </c>
+      <c r="F16">
+        <v>0.072093079835732765</v>
+      </c>
+      <c r="G16">
+        <v>0.038645619317563037</v>
+      </c>
+      <c r="H16">
+        <v>0.0061188409998152787</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="B17">
+        <v>0.9432005389697522</v>
+      </c>
+      <c r="C17">
+        <v>0.024671746735662425</v>
+      </c>
+      <c r="D17">
+        <v>0.001985853625105127</v>
+      </c>
+      <c r="E17">
+        <v>0.012150239182005949</v>
+      </c>
+      <c r="F17">
+        <v>0.0043038174710334602</v>
+      </c>
+      <c r="G17">
+        <v>0.011554472379850772</v>
+      </c>
+      <c r="H17">
+        <v>0.0021333316365901539</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="B18">
+        <v>0.98229527115015647</v>
+      </c>
+      <c r="C18">
+        <v>0.0046635423932438304</v>
+      </c>
+      <c r="D18">
+        <v>0.0015734527799173919</v>
+      </c>
+      <c r="E18">
+        <v>0.0027592576655735054</v>
+      </c>
+      <c r="F18">
+        <v>4.2502262016035517e-05</v>
+      </c>
+      <c r="G18">
+        <v>0.0065740725466370319</v>
+      </c>
+      <c r="H18">
+        <v>0.0020919012024556241</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="B19">
+        <v>0.97778563860028256</v>
+      </c>
+      <c r="C19">
+        <v>0.019503920547484566</v>
+      </c>
+      <c r="D19">
+        <v>0.00090600162075578697</v>
+      </c>
+      <c r="E19">
+        <v>0.00013696140422411539</v>
+      </c>
+      <c r="F19">
+        <v>1.8417420967308325e-05</v>
+      </c>
+      <c r="G19">
+        <v>0.0011574947101848849</v>
+      </c>
+      <c r="H19">
+        <v>0.00049156569610088463</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="B20">
+        <v>0.96907444068724424</v>
+      </c>
+      <c r="C20">
+        <v>0.015781197954696926</v>
+      </c>
+      <c r="D20">
+        <v>0.0015008472257958215</v>
+      </c>
+      <c r="E20">
+        <v>0.0022809454329336489</v>
+      </c>
+      <c r="F20">
+        <v>0.0058443820113196106</v>
+      </c>
+      <c r="G20">
+        <v>0.0035303769772139079</v>
+      </c>
+      <c r="H20">
+        <v>0.0019878097107957522</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="B21">
+        <v>0.97231564253543523</v>
+      </c>
+      <c r="C21">
+        <v>0.019336341230018723</v>
+      </c>
+      <c r="D21">
+        <v>0.0024357606750647137</v>
+      </c>
+      <c r="E21">
+        <v>0.00049197382473939292</v>
+      </c>
+      <c r="F21">
+        <v>0.0018453251663111876</v>
+      </c>
+      <c r="G21">
+        <v>0.0031734505389286404</v>
+      </c>
+      <c r="H21">
+        <v>0.00040150602950217288</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="B22">
+        <v>0.99624536583497392</v>
+      </c>
+      <c r="C22">
+        <v>0.0013802321351323139</v>
+      </c>
+      <c r="D22">
+        <v>0.0011925320550794766</v>
+      </c>
+      <c r="E22">
+        <v>1.2544378770225682e-07</v>
+      </c>
+      <c r="F22">
+        <v>3.0164887845002205e-07</v>
+      </c>
+      <c r="G22">
+        <v>0.00097384362031779719</v>
+      </c>
+      <c r="H22">
+        <v>0.00020759926183041224</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="B23">
+        <v>0.97266828772492897</v>
+      </c>
+      <c r="C23">
+        <v>0.0066588384789006364</v>
+      </c>
+      <c r="D23">
+        <v>0.0014983403406903463</v>
+      </c>
+      <c r="E23">
+        <v>0.0040808596403669019</v>
+      </c>
+      <c r="F23">
+        <v>0.00022978247948721734</v>
+      </c>
+      <c r="G23">
+        <v>0.013176869433449107</v>
+      </c>
+      <c r="H23">
+        <v>0.0016870219021768826</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="B24">
+        <v>0.96519700919519402</v>
+      </c>
+      <c r="C24">
+        <v>0.017099746725219148</v>
+      </c>
+      <c r="D24">
+        <v>0.0017670200114857397</v>
+      </c>
+      <c r="E24">
+        <v>0.005236930492382507</v>
+      </c>
+      <c r="F24">
+        <v>0.0046414806053082496</v>
+      </c>
+      <c r="G24">
+        <v>0.0039058507290442024</v>
+      </c>
+      <c r="H24">
+        <v>0.0021519622413659124</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="B25">
+        <v>0.95934963060614853</v>
+      </c>
+      <c r="C25">
+        <v>0.026094603769429767</v>
+      </c>
+      <c r="D25">
+        <v>0.0015857976236886991</v>
+      </c>
+      <c r="E25">
+        <v>0.0054221315947223089</v>
+      </c>
+      <c r="F25">
+        <v>0.001493034383486067</v>
+      </c>
+      <c r="G25">
+        <v>0.004433737461030123</v>
+      </c>
+      <c r="H25">
+        <v>0.0016210645614945043</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="B26">
+        <v>0.18379441805862357</v>
+      </c>
+      <c r="C26">
+        <v>0.060583069403486595</v>
+      </c>
+      <c r="D26">
+        <v>0.0079241475647464608</v>
+      </c>
+      <c r="E26">
+        <v>0.3376600124465986</v>
+      </c>
+      <c r="F26">
+        <v>0.10775058509184376</v>
+      </c>
+      <c r="G26">
+        <v>0.29837610162924472</v>
+      </c>
+      <c r="H26">
+        <v>0.0039116658054562112</v>
+      </c>
+      <c r="I26">
+        <v>4</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="B27">
+        <v>0.9890018178093466</v>
+      </c>
+      <c r="C27">
+        <v>0.0079191358262889686</v>
+      </c>
+      <c r="D27">
+        <v>0.0009444620738187189</v>
+      </c>
+      <c r="E27">
+        <v>0.0001588668102188833</v>
+      </c>
+      <c r="F27">
+        <v>0.00021867381380552203</v>
+      </c>
+      <c r="G27">
+        <v>0.00050516177959551158</v>
+      </c>
+      <c r="H27">
+        <v>0.0012518818869257939</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="B28">
+        <v>0.97327768192106834</v>
+      </c>
+      <c r="C28">
+        <v>0.016322515664893449</v>
+      </c>
+      <c r="D28">
+        <v>0.0012368683111458766</v>
+      </c>
+      <c r="E28">
+        <v>0.0022756035895185288</v>
+      </c>
+      <c r="F28">
+        <v>0.0027695513921019671</v>
+      </c>
+      <c r="G28">
+        <v>0.0010014786962123626</v>
+      </c>
+      <c r="H28">
+        <v>0.0031163004250596735</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="B29">
+        <v>0.30085151167067981</v>
+      </c>
+      <c r="C29">
+        <v>0.11334971074771456</v>
+      </c>
+      <c r="D29">
+        <v>0.026107950361957583</v>
+      </c>
+      <c r="E29">
+        <v>0.26891773917634831</v>
+      </c>
+      <c r="F29">
+        <v>0.084654988660997618</v>
+      </c>
+      <c r="G29">
+        <v>0.18538789426021121</v>
+      </c>
+      <c r="H29">
+        <v>0.02073020512209095</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="B30">
+        <v>0.98742488724595789</v>
+      </c>
+      <c r="C30">
+        <v>0.0097880562263713174</v>
+      </c>
+      <c r="D30">
+        <v>0.0010214433323922612</v>
+      </c>
+      <c r="E30">
+        <v>5.3276171784798757e-05</v>
+      </c>
+      <c r="F30">
+        <v>4.0948010619891402e-05</v>
+      </c>
+      <c r="G30">
+        <v>0.0014533429502539561</v>
+      </c>
+      <c r="H30">
+        <v>0.00021804606261982939</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="B31">
+        <v>0.97695937122131282</v>
+      </c>
+      <c r="C31">
+        <v>0.0041799382730317858</v>
+      </c>
+      <c r="D31">
+        <v>0.0011267796777638056</v>
+      </c>
+      <c r="E31">
+        <v>5.6036385958458529e-05</v>
+      </c>
+      <c r="F31">
+        <v>2.4464809789205355e-06</v>
+      </c>
+      <c r="G31">
+        <v>0.017649829899115444</v>
+      </c>
+      <c r="H31">
+        <v>2.5598061838606573e-05</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="B32">
+        <v>0.98712137987550763</v>
+      </c>
+      <c r="C32">
+        <v>0.0075143487352246725</v>
+      </c>
+      <c r="D32">
+        <v>0.00096675480462626146</v>
+      </c>
+      <c r="E32">
+        <v>0.00023739679850529912</v>
+      </c>
+      <c r="F32">
+        <v>0.00051497650424780475</v>
+      </c>
+      <c r="G32">
+        <v>0.00092036632310358668</v>
+      </c>
+      <c r="H32">
+        <v>0.0027247769587848913</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="B33">
+        <v>0.5157917709137001</v>
+      </c>
+      <c r="C33">
+        <v>0.086672652171509684</v>
+      </c>
+      <c r="D33">
+        <v>0.0084676457035006703</v>
+      </c>
+      <c r="E33">
+        <v>0.018622719590309152</v>
+      </c>
+      <c r="F33">
+        <v>0.31010156881303302</v>
+      </c>
+      <c r="G33">
+        <v>0.052567802042153611</v>
+      </c>
+      <c r="H33">
+        <v>0.0077758407657938285</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="B34">
+        <v>0.98835857843419495</v>
+      </c>
+      <c r="C34">
+        <v>0.0086055887033079474</v>
+      </c>
+      <c r="D34">
+        <v>0.0012539994208977936</v>
+      </c>
+      <c r="E34">
+        <v>0.00011826608952301566</v>
+      </c>
+      <c r="F34">
+        <v>8.0299776342125716e-05</v>
+      </c>
+      <c r="G34">
+        <v>0.00052474316093813688</v>
+      </c>
+      <c r="H34">
+        <v>0.0010585244147959685</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="B35">
+        <v>0.94056845018028912</v>
+      </c>
+      <c r="C35">
+        <v>0.031089499023442345</v>
+      </c>
+      <c r="D35">
+        <v>0.00096193610809528136</v>
+      </c>
+      <c r="E35">
+        <v>0.00045208432110649329</v>
+      </c>
+      <c r="F35">
+        <v>0.0014790303394112045</v>
+      </c>
+      <c r="G35">
+        <v>0.0016758450040503118</v>
+      </c>
+      <c r="H35">
+        <v>0.023773155023605351</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="B36">
+        <v>0.98973800757195707</v>
+      </c>
+      <c r="C36">
+        <v>0.00096954348812093518</v>
+      </c>
+      <c r="D36">
+        <v>0.00092650797088487166</v>
+      </c>
+      <c r="E36">
+        <v>4.2115317149421958e-07</v>
+      </c>
+      <c r="F36">
+        <v>6.3170207746515573e-08</v>
+      </c>
+      <c r="G36">
+        <v>0.0083401040970842808</v>
+      </c>
+      <c r="H36">
+        <v>2.5352548573565073e-05</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="B37">
+        <v>0.98199030310736579</v>
+      </c>
+      <c r="C37">
+        <v>0.0054866391303468806</v>
+      </c>
+      <c r="D37">
+        <v>0.0013058767170082445</v>
+      </c>
+      <c r="E37">
+        <v>0.0012275215341111287</v>
+      </c>
+      <c r="F37">
+        <v>0.0002131563340176772</v>
+      </c>
+      <c r="G37">
+        <v>0.0037205510237962604</v>
+      </c>
+      <c r="H37">
+        <v>0.006055952153353859</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="B38">
+        <v>0.9894223452615486</v>
+      </c>
+      <c r="C38">
+        <v>0.0054322605022137987</v>
+      </c>
+      <c r="D38">
+        <v>0.00105971614082053</v>
+      </c>
+      <c r="E38">
+        <v>1.8821137627450768e-05</v>
+      </c>
+      <c r="F38">
+        <v>2.8106943328646898e-05</v>
+      </c>
+      <c r="G38">
+        <v>0.0034624598625941083</v>
+      </c>
+      <c r="H38">
+        <v>0.0005762901518669522</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="B39">
+        <v>0.9251401779397509</v>
+      </c>
+      <c r="C39">
+        <v>0.026626987054465607</v>
+      </c>
+      <c r="D39">
+        <v>0.00079728909460943169</v>
+      </c>
+      <c r="E39">
+        <v>0.00010777478488797566</v>
+      </c>
+      <c r="F39">
+        <v>0.038482521026663864</v>
+      </c>
+      <c r="G39">
+        <v>0.00084583833658127112</v>
+      </c>
+      <c r="H39">
+        <v>0.0079994117630409339</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="B40">
+        <v>0.89821123849831275</v>
+      </c>
+      <c r="C40">
+        <v>0.022292376619024463</v>
+      </c>
+      <c r="D40">
+        <v>0.00090976272738355264</v>
+      </c>
+      <c r="E40">
+        <v>5.6010481632925288e-05</v>
+      </c>
+      <c r="F40">
+        <v>0.0241023429418343</v>
+      </c>
+      <c r="G40">
+        <v>0.0066044821332530805</v>
+      </c>
+      <c r="H40">
+        <v>0.047823786598559063</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="B41">
+        <v>0.97905805511751798</v>
+      </c>
+      <c r="C41">
+        <v>0.017032683566849349</v>
+      </c>
+      <c r="D41">
+        <v>0.0013899979862975098</v>
+      </c>
+      <c r="E41">
+        <v>0.00061179970101847515</v>
+      </c>
+      <c r="F41">
+        <v>0.00078066436267318308</v>
+      </c>
+      <c r="G41">
+        <v>0.00050368081940172318</v>
+      </c>
+      <c r="H41">
+        <v>0.000623118446241912</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="B42">
+        <v>0.97169339363217633</v>
+      </c>
+      <c r="C42">
+        <v>0.0097689798767587634</v>
+      </c>
+      <c r="D42">
+        <v>0.00094337363433981728</v>
+      </c>
+      <c r="E42">
+        <v>0.0001406073565983986</v>
+      </c>
+      <c r="F42">
+        <v>0.0024027976667600742</v>
+      </c>
+      <c r="G42">
+        <v>0.0026924178194039426</v>
+      </c>
+      <c r="H42">
+        <v>0.012358430013962637</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="B43">
+        <v>0.98777490632794529</v>
+      </c>
+      <c r="C43">
+        <v>0.010109634876418928</v>
+      </c>
+      <c r="D43">
+        <v>0.0010100766525034197</v>
+      </c>
+      <c r="E43">
+        <v>0.00017598111907429629</v>
+      </c>
+      <c r="F43">
+        <v>1.9455967600095851e-05</v>
+      </c>
+      <c r="G43">
+        <v>0.0004162759812023394</v>
+      </c>
+      <c r="H43">
+        <v>0.0004936690752556669</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="B44">
+        <v>0.90333608018988587</v>
+      </c>
+      <c r="C44">
+        <v>0.037629190004284836</v>
+      </c>
+      <c r="D44">
+        <v>0.0047054791195204962</v>
+      </c>
+      <c r="E44">
+        <v>0.0059702640510710852</v>
+      </c>
+      <c r="F44">
+        <v>0.041633055785385314</v>
+      </c>
+      <c r="G44">
+        <v>0.00520187638560055</v>
+      </c>
+      <c r="H44">
+        <v>0.001524054464251935</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="B45">
+        <v>0.97461677617234654</v>
+      </c>
+      <c r="C45">
+        <v>0.018745846896975997</v>
+      </c>
+      <c r="D45">
+        <v>0.0013367425048556344</v>
+      </c>
+      <c r="E45">
+        <v>0.0020927586076947028</v>
+      </c>
+      <c r="F45">
+        <v>3.2746875262029312e-05</v>
+      </c>
+      <c r="G45">
+        <v>0.0017541422895826287</v>
+      </c>
+      <c r="H45">
+        <v>0.0014209866532825003</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="B46">
+        <v>0.96387487229109226</v>
+      </c>
+      <c r="C46">
+        <v>0.032651579471830401</v>
+      </c>
+      <c r="D46">
+        <v>0.00097386294036011425</v>
+      </c>
+      <c r="E46">
+        <v>0.0012466450521030905</v>
+      </c>
+      <c r="F46">
+        <v>0.00011724103699363977</v>
+      </c>
+      <c r="G46">
+        <v>0.00078069321639597303</v>
+      </c>
+      <c r="H46">
+        <v>0.00035510599122438852</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="B47">
+        <v>0.97559881549871164</v>
+      </c>
+      <c r="C47">
+        <v>0.010552845317454117</v>
+      </c>
+      <c r="D47">
+        <v>0.0016473411133608455</v>
+      </c>
+      <c r="E47">
+        <v>0.0058689754966024027</v>
+      </c>
+      <c r="F47">
+        <v>0.0014213554728201895</v>
+      </c>
+      <c r="G47">
+        <v>0.0042289609468801831</v>
+      </c>
+      <c r="H47">
+        <v>0.00068170615417077936</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="B48">
+        <v>0.98488902727273742</v>
+      </c>
+      <c r="C48">
+        <v>0.009754859208899111</v>
+      </c>
+      <c r="D48">
+        <v>0.0011357101158256347</v>
+      </c>
+      <c r="E48">
+        <v>0.002581971351503164</v>
+      </c>
+      <c r="F48">
+        <v>7.3911552818547583e-06</v>
+      </c>
+      <c r="G48">
+        <v>0.00079298073028659865</v>
+      </c>
+      <c r="H48">
+        <v>0.0008380601654663603</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="B49">
+        <v>0.9886056002741288</v>
+      </c>
+      <c r="C49">
+        <v>0.007191064840113723</v>
+      </c>
+      <c r="D49">
+        <v>0.0011189101892087716</v>
+      </c>
+      <c r="E49">
+        <v>0.0013636108616047389</v>
+      </c>
+      <c r="F49">
+        <v>0.00015856284911209826</v>
+      </c>
+      <c r="G49">
+        <v>0.0011549330830355482</v>
+      </c>
+      <c r="H49">
+        <v>0.0004073179027963594</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="B50">
+        <v>0.96984766651490495</v>
+      </c>
+      <c r="C50">
+        <v>0.026328220923912227</v>
+      </c>
+      <c r="D50">
+        <v>0.0010139895232270835</v>
+      </c>
+      <c r="E50">
+        <v>0.0012811330864003915</v>
+      </c>
+      <c r="F50">
+        <v>0.00093264976581059714</v>
+      </c>
+      <c r="G50">
+        <v>0.00016587208764110329</v>
+      </c>
+      <c r="H50">
+        <v>0.00043046809810362027</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="B51">
+        <v>0.97648951716903842</v>
+      </c>
+      <c r="C51">
+        <v>0.01795084741804711</v>
+      </c>
+      <c r="D51">
+        <v>0.0019792603749181968</v>
+      </c>
+      <c r="E51">
+        <v>0.0002985014070834459</v>
+      </c>
+      <c r="F51">
+        <v>0.00024481110900614916</v>
+      </c>
+      <c r="G51">
+        <v>0.0018645765555293339</v>
+      </c>
+      <c r="H51">
+        <v>0.0011724859663773963</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="B52">
+        <v>0.95856630404971732</v>
+      </c>
+      <c r="C52">
+        <v>0.031340402533179205</v>
+      </c>
+      <c r="D52">
+        <v>0.0014204532067968038</v>
+      </c>
+      <c r="E52">
+        <v>0.0052048573773439003</v>
+      </c>
+      <c r="F52">
+        <v>0.00053861959526874906</v>
+      </c>
+      <c r="G52">
+        <v>0.0017858130393345949</v>
+      </c>
+      <c r="H52">
+        <v>0.0011435501983593297</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="B53">
+        <v>0.99306025027657863</v>
+      </c>
+      <c r="C53">
+        <v>0.0037786532236628811</v>
+      </c>
+      <c r="D53">
+        <v>0.0011711255797447677</v>
+      </c>
+      <c r="E53">
+        <v>0.00042443214655538651</v>
+      </c>
+      <c r="F53">
+        <v>1.5546865313797961e-05</v>
+      </c>
+      <c r="G53">
+        <v>0.00057988672474052123</v>
+      </c>
+      <c r="H53">
+        <v>0.00097010518340417441</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="B54">
+        <v>0.95402946403490418</v>
+      </c>
+      <c r="C54">
+        <v>0.030464947653432592</v>
+      </c>
+      <c r="D54">
+        <v>0.0018457189730069605</v>
+      </c>
+      <c r="E54">
+        <v>0.008948665180507142</v>
+      </c>
+      <c r="F54">
+        <v>2.0752006789615684e-05</v>
+      </c>
+      <c r="G54">
+        <v>0.0035955830514949978</v>
+      </c>
+      <c r="H54">
+        <v>0.0010948690998644761</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="B55">
+        <v>0.99036350635785164</v>
+      </c>
+      <c r="C55">
+        <v>0.0055153083617444486</v>
+      </c>
+      <c r="D55">
+        <v>0.0011297764044045158</v>
+      </c>
+      <c r="E55">
+        <v>0.0011230319993311435</v>
+      </c>
+      <c r="F55">
+        <v>1.5696681934477715e-05</v>
+      </c>
+      <c r="G55">
+        <v>0.00098205471020231774</v>
+      </c>
+      <c r="H55">
+        <v>0.00087062548453165176</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="B56">
+        <v>0.0013466543369153631</v>
+      </c>
+      <c r="C56">
+        <v>0.99204886500319633</v>
+      </c>
+      <c r="D56">
+        <v>0.0018855065868367963</v>
+      </c>
+      <c r="E56">
+        <v>0.00026823733373422743</v>
+      </c>
+      <c r="F56">
+        <v>0.0031282748633203153</v>
+      </c>
+      <c r="G56">
+        <v>0.00037891649886718652</v>
+      </c>
+      <c r="H56">
+        <v>0.00094354537712986646</v>
+      </c>
+      <c r="I56">
+        <v>2</v>
+      </c>
+      <c r="J56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="B57">
+        <v>0.35157536266737915</v>
+      </c>
+      <c r="C57">
+        <v>0.57468778155366185</v>
+      </c>
+      <c r="D57">
+        <v>0.0072316854275422419</v>
+      </c>
+      <c r="E57">
+        <v>0.017349190931441997</v>
+      </c>
+      <c r="F57">
+        <v>0.010081858464539935</v>
+      </c>
+      <c r="G57">
+        <v>0.0033534465683438216</v>
+      </c>
+      <c r="H57">
+        <v>0.035720674387090798</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
+      <c r="J57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="B58">
+        <v>0.093819016149740683</v>
+      </c>
+      <c r="C58">
+        <v>0.90185451801621241</v>
+      </c>
+      <c r="D58">
+        <v>0.0012996796173031127</v>
+      </c>
+      <c r="E58">
+        <v>0.00051819986888678208</v>
+      </c>
+      <c r="F58">
+        <v>2.2741542189125199e-05</v>
+      </c>
+      <c r="G58">
+        <v>0.00062460895716223686</v>
+      </c>
+      <c r="H58">
+        <v>0.0018612358485057851</v>
+      </c>
+      <c r="I58">
+        <v>2</v>
+      </c>
+      <c r="J58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="B59">
+        <v>0.0013984107758174252</v>
+      </c>
+      <c r="C59">
+        <v>0.99448291298897418</v>
+      </c>
+      <c r="D59">
+        <v>0.0017121064340718365</v>
+      </c>
+      <c r="E59">
+        <v>3.9090119883210862e-05</v>
+      </c>
+      <c r="F59">
+        <v>0.00032149674026578709</v>
+      </c>
+      <c r="G59">
+        <v>0.00024270710403343672</v>
+      </c>
+      <c r="H59">
+        <v>0.0018032758369540399</v>
+      </c>
+      <c r="I59">
+        <v>2</v>
+      </c>
+      <c r="J59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="B60">
+        <v>0.042082193325595305</v>
+      </c>
+      <c r="C60">
+        <v>0.019216456127084808</v>
+      </c>
+      <c r="D60">
+        <v>0.041832677740350051</v>
+      </c>
+      <c r="E60">
+        <v>0.029771010394785091</v>
+      </c>
+      <c r="F60">
+        <v>0.040585552030715615</v>
+      </c>
+      <c r="G60">
+        <v>0.5848095659544591</v>
+      </c>
+      <c r="H60">
+        <v>0.24170254442701017</v>
+      </c>
+      <c r="I60">
+        <v>6</v>
+      </c>
+      <c r="J60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="B61">
+        <v>0.16674938948874368</v>
+      </c>
+      <c r="C61">
+        <v>0.81916682882464487</v>
+      </c>
+      <c r="D61">
+        <v>0.0035792168379452493</v>
+      </c>
+      <c r="E61">
+        <v>8.9012617374383001e-05</v>
+      </c>
+      <c r="F61">
+        <v>0.0069861055340395602</v>
+      </c>
+      <c r="G61">
+        <v>0.0012720097099298813</v>
+      </c>
+      <c r="H61">
+        <v>0.0021574369873223233</v>
+      </c>
+      <c r="I61">
+        <v>2</v>
+      </c>
+      <c r="J61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="B62">
+        <v>0.00035829864274762601</v>
+      </c>
+      <c r="C62">
+        <v>0.99477104927594917</v>
+      </c>
+      <c r="D62">
+        <v>0.0017146493845285006</v>
+      </c>
+      <c r="E62">
+        <v>0.00012677046040960544</v>
+      </c>
+      <c r="F62">
+        <v>0.0010405462624569208</v>
+      </c>
+      <c r="G62">
+        <v>0.00052015300103071033</v>
+      </c>
+      <c r="H62">
+        <v>0.0014685329728773594</v>
+      </c>
+      <c r="I62">
+        <v>2</v>
+      </c>
+      <c r="J62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="B63">
+        <v>0.0023254603347747445</v>
+      </c>
+      <c r="C63">
+        <v>0.99056204519209845</v>
+      </c>
+      <c r="D63">
+        <v>0.0014291457782930764</v>
+      </c>
+      <c r="E63">
+        <v>0.00020933492971656045</v>
+      </c>
+      <c r="F63">
+        <v>0.00026642103558672782</v>
+      </c>
+      <c r="G63">
+        <v>0.00010321483057296207</v>
+      </c>
+      <c r="H63">
+        <v>0.0051043778989574712</v>
+      </c>
+      <c r="I63">
+        <v>2</v>
+      </c>
+      <c r="J63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="B64">
+        <v>0.17127804015833795</v>
+      </c>
+      <c r="C64">
+        <v>0.17173001184291672</v>
+      </c>
+      <c r="D64">
+        <v>0.10818194488571599</v>
+      </c>
+      <c r="E64">
+        <v>0.16906917042845626</v>
+      </c>
+      <c r="F64">
+        <v>0.13509716117496251</v>
+      </c>
+      <c r="G64">
+        <v>0.075078089175689061</v>
+      </c>
+      <c r="H64">
+        <v>0.16956558233392147</v>
+      </c>
+      <c r="I64">
+        <v>2</v>
+      </c>
+      <c r="J64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="B65">
+        <v>0.16745887311190466</v>
+      </c>
+      <c r="C65">
+        <v>0.20240168464405014</v>
+      </c>
+      <c r="D65">
+        <v>0.060817825089628699</v>
+      </c>
+      <c r="E65">
+        <v>0.23052277052010042</v>
+      </c>
+      <c r="F65">
+        <v>0.067092989126618721</v>
+      </c>
+      <c r="G65">
+        <v>0.019711134454392435</v>
+      </c>
+      <c r="H65">
+        <v>0.25199472305330495</v>
+      </c>
+      <c r="I65">
+        <v>7</v>
+      </c>
+      <c r="J65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="B66">
+        <v>0.0064680082074833022</v>
+      </c>
+      <c r="C66">
+        <v>0.00057594408616469333</v>
+      </c>
+      <c r="D66">
+        <v>0.00098089970490311323</v>
+      </c>
+      <c r="E66">
+        <v>0.97921988266784277</v>
+      </c>
+      <c r="F66">
+        <v>7.6600216728451895e-05</v>
+      </c>
+      <c r="G66">
+        <v>3.7012291371376778e-05</v>
+      </c>
+      <c r="H66">
+        <v>0.012641652825506281</v>
+      </c>
+      <c r="I66">
+        <v>4</v>
+      </c>
+      <c r="J66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="B67">
+        <v>0.065656792764757207</v>
+      </c>
+      <c r="C67">
+        <v>0.004848512235038174</v>
+      </c>
+      <c r="D67">
+        <v>0.012447734252956031</v>
+      </c>
+      <c r="E67">
+        <v>0.78134113367117675</v>
+      </c>
+      <c r="F67">
+        <v>0.098734210703140174</v>
+      </c>
+      <c r="G67">
+        <v>0.0010155492539087668</v>
+      </c>
+      <c r="H67">
+        <v>0.035956067119022918</v>
+      </c>
+      <c r="I67">
+        <v>4</v>
+      </c>
+      <c r="J67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="B68">
+        <v>0.004889707697724629</v>
+      </c>
+      <c r="C68">
+        <v>0.0010436809394178805</v>
+      </c>
+      <c r="D68">
+        <v>0.00075126812210946634</v>
+      </c>
+      <c r="E68">
+        <v>0.95901509231442206</v>
+      </c>
+      <c r="F68">
+        <v>7.1223085353141512e-05</v>
+      </c>
+      <c r="G68">
+        <v>2.2863801311834541e-05</v>
+      </c>
+      <c r="H68">
+        <v>0.034206164039661084</v>
+      </c>
+      <c r="I68">
+        <v>4</v>
+      </c>
+      <c r="J68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="B69">
+        <v>0.0033770115463867354</v>
+      </c>
+      <c r="C69">
+        <v>0.00017212845264085453</v>
+      </c>
+      <c r="D69">
+        <v>0.00099434778450217939</v>
+      </c>
+      <c r="E69">
+        <v>0.99422790345421674</v>
+      </c>
+      <c r="F69">
+        <v>1.1508851579259632e-06</v>
+      </c>
+      <c r="G69">
+        <v>0.00016157845843050561</v>
+      </c>
+      <c r="H69">
+        <v>0.0010658794186650484</v>
+      </c>
+      <c r="I69">
+        <v>4</v>
+      </c>
+      <c r="J69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="B70">
+        <v>0.00051453595530121085</v>
+      </c>
+      <c r="C70">
+        <v>9.1563450971060602e-05</v>
+      </c>
+      <c r="D70">
+        <v>0.0010794542327574866</v>
+      </c>
+      <c r="E70">
+        <v>0.99493709940719599</v>
+      </c>
+      <c r="F70">
+        <v>4.8441554414235442e-06</v>
+      </c>
+      <c r="G70">
+        <v>0.00016105929656470017</v>
+      </c>
+      <c r="H70">
+        <v>0.0032114435017683183</v>
+      </c>
+      <c r="I70">
+        <v>4</v>
+      </c>
+      <c r="J70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="B71">
+        <v>0.0030310135823343608</v>
+      </c>
+      <c r="C71">
+        <v>0.00016288048273152575</v>
+      </c>
+      <c r="D71">
+        <v>0.0014898281866584555</v>
+      </c>
+      <c r="E71">
+        <v>0.99385641163404415</v>
+      </c>
+      <c r="F71">
+        <v>4.5264889945223836e-05</v>
+      </c>
+      <c r="G71">
+        <v>0.00038765787234854715</v>
+      </c>
+      <c r="H71">
+        <v>0.0010269433519376368</v>
+      </c>
+      <c r="I71">
+        <v>4</v>
+      </c>
+      <c r="J71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="B72">
+        <v>0.0075441572827065276</v>
+      </c>
+      <c r="C72">
+        <v>0.00055338265561460378</v>
+      </c>
+      <c r="D72">
+        <v>0.0012160191324030122</v>
+      </c>
+      <c r="E72">
+        <v>0.98778450592544698</v>
+      </c>
+      <c r="F72">
+        <v>2.4634547352173136e-05</v>
+      </c>
+      <c r="G72">
+        <v>0.0022240214081498781</v>
+      </c>
+      <c r="H72">
+        <v>0.0006532790483268848</v>
+      </c>
+      <c r="I72">
+        <v>4</v>
+      </c>
+      <c r="J72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="B73">
+        <v>0.001731173414391717</v>
+      </c>
+      <c r="C73">
+        <v>0.00057374098419786404</v>
+      </c>
+      <c r="D73">
+        <v>0.0011923690775121083</v>
+      </c>
+      <c r="E73">
+        <v>0.99447367115267771</v>
+      </c>
+      <c r="F73">
+        <v>6.1056788746553971e-05</v>
+      </c>
+      <c r="G73">
+        <v>0.00095843553494909879</v>
+      </c>
+      <c r="H73">
+        <v>0.0010095530475249955</v>
+      </c>
+      <c r="I73">
+        <v>4</v>
+      </c>
+      <c r="J73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="B74">
+        <v>0.0012175918557438279</v>
+      </c>
+      <c r="C74">
+        <v>0.00052559404665053716</v>
+      </c>
+      <c r="D74">
+        <v>0.001302814169496693</v>
+      </c>
+      <c r="E74">
+        <v>0.99521214470650321</v>
+      </c>
+      <c r="F74">
+        <v>0.00031295419531998864</v>
+      </c>
+      <c r="G74">
+        <v>0.0004678162385309268</v>
+      </c>
+      <c r="H74">
+        <v>0.00096108478775482444</v>
+      </c>
+      <c r="I74">
+        <v>4</v>
+      </c>
+      <c r="J74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="B75">
+        <v>0.097876249082254951</v>
+      </c>
+      <c r="C75">
+        <v>0.032697238803927456</v>
+      </c>
+      <c r="D75">
+        <v>0.0030031748112658817</v>
+      </c>
+      <c r="E75">
+        <v>0.83953078201119535</v>
+      </c>
+      <c r="F75">
+        <v>0.00068238362031486941</v>
+      </c>
+      <c r="G75">
+        <v>0.0054290593615962555</v>
+      </c>
+      <c r="H75">
+        <v>0.020781112309445286</v>
+      </c>
+      <c r="I75">
+        <v>4</v>
+      </c>
+      <c r="J75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="B76">
+        <v>0.2005317457171836</v>
+      </c>
+      <c r="C76">
+        <v>0.08188947580823297</v>
+      </c>
+      <c r="D76">
+        <v>0.017258522599249548</v>
+      </c>
+      <c r="E76">
+        <v>0.35544944891330982</v>
+      </c>
+      <c r="F76">
+        <v>0.13535193587802075</v>
+      </c>
+      <c r="G76">
+        <v>0.20474260723998527</v>
+      </c>
+      <c r="H76">
+        <v>0.0047762638440177882</v>
+      </c>
+      <c r="I76">
+        <v>4</v>
+      </c>
+      <c r="J76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="B77">
+        <v>0.00040030435997748037</v>
+      </c>
+      <c r="C77">
+        <v>0.00011747557923284231</v>
+      </c>
+      <c r="D77">
+        <v>0.0012820994701718978</v>
+      </c>
+      <c r="E77">
+        <v>5.5504833233081886e-05</v>
+      </c>
+      <c r="F77">
+        <v>0.99619154049819381</v>
+      </c>
+      <c r="G77">
+        <v>7.615764365119244e-05</v>
+      </c>
+      <c r="H77">
+        <v>0.0018769176155397675</v>
+      </c>
+      <c r="I77">
+        <v>5</v>
+      </c>
+      <c r="J77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="B78">
+        <v>0.0010839283211083552</v>
+      </c>
+      <c r="C78">
+        <v>0.0022664201197859285</v>
+      </c>
+      <c r="D78">
+        <v>0.00106406405329626</v>
+      </c>
+      <c r="E78">
+        <v>0.0026339641132620334</v>
+      </c>
+      <c r="F78">
+        <v>0.97966752803108625</v>
+      </c>
+      <c r="G78">
+        <v>0.012975578182309671</v>
+      </c>
+      <c r="H78">
+        <v>0.00030851717915148983</v>
+      </c>
+      <c r="I78">
+        <v>5</v>
+      </c>
+      <c r="J78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="B79">
+        <v>0.0011204454148959673</v>
+      </c>
+      <c r="C79">
+        <v>0.0028977314334917054</v>
+      </c>
+      <c r="D79">
+        <v>0.0011192753216525454</v>
+      </c>
+      <c r="E79">
+        <v>0.012826793303571272</v>
+      </c>
+      <c r="F79">
+        <v>0.97610856975257154</v>
+      </c>
+      <c r="G79">
+        <v>0.0055555120343963958</v>
+      </c>
+      <c r="H79">
+        <v>0.00037167273942055926</v>
+      </c>
+      <c r="I79">
+        <v>5</v>
+      </c>
+      <c r="J79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="B80">
+        <v>0.0022398450260429398</v>
+      </c>
+      <c r="C80">
+        <v>0.0063478842465244222</v>
+      </c>
+      <c r="D80">
+        <v>0.0010798037260585573</v>
+      </c>
+      <c r="E80">
+        <v>0.011405908252389959</v>
+      </c>
+      <c r="F80">
+        <v>0.97529011501106011</v>
+      </c>
+      <c r="G80">
+        <v>0.0031712329313704031</v>
+      </c>
+      <c r="H80">
+        <v>0.00046521080655355113</v>
+      </c>
+      <c r="I80">
+        <v>5</v>
+      </c>
+      <c r="J80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="B81">
+        <v>0.0051422055341916817</v>
+      </c>
+      <c r="C81">
+        <v>0.0114790216813805</v>
+      </c>
+      <c r="D81">
+        <v>0.0030094158317883228</v>
+      </c>
+      <c r="E81">
+        <v>0.61045059080582931</v>
+      </c>
+      <c r="F81">
+        <v>0.23229976991881662</v>
+      </c>
+      <c r="G81">
+        <v>0.13616161144522648</v>
+      </c>
+      <c r="H81">
+        <v>0.0014573847827670657</v>
+      </c>
+      <c r="I81">
+        <v>4</v>
+      </c>
+      <c r="J81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="B82">
+        <v>0.00079098331539203431</v>
+      </c>
+      <c r="C82">
+        <v>0.0057622752811365601</v>
+      </c>
+      <c r="D82">
+        <v>0.00080039131021906876</v>
+      </c>
+      <c r="E82">
+        <v>0.00017477041311112203</v>
+      </c>
+      <c r="F82">
+        <v>0.97940773933682834</v>
+      </c>
+      <c r="G82">
+        <v>9.4244909876075133e-05</v>
+      </c>
+      <c r="H82">
+        <v>0.012969595433436811</v>
+      </c>
+      <c r="I82">
+        <v>5</v>
+      </c>
+      <c r="J82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="B83">
+        <v>0.0010362877436472975</v>
+      </c>
+      <c r="C83">
+        <v>0.0034185380485114427</v>
+      </c>
+      <c r="D83">
+        <v>0.001050718318566544</v>
+      </c>
+      <c r="E83">
+        <v>0.0027115083727663491</v>
+      </c>
+      <c r="F83">
+        <v>0.98677755520925492</v>
+      </c>
+      <c r="G83">
+        <v>0.0047419736534796315</v>
+      </c>
+      <c r="H83">
+        <v>0.00026341865377384113</v>
+      </c>
+      <c r="I83">
+        <v>5</v>
+      </c>
+      <c r="J83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="B84">
+        <v>0.00021277577609447296</v>
+      </c>
+      <c r="C84">
+        <v>0.00040233485079574035</v>
+      </c>
+      <c r="D84">
+        <v>0.00078514111165116178</v>
+      </c>
+      <c r="E84">
+        <v>0.0012646248762073788</v>
+      </c>
+      <c r="F84">
+        <v>0.97361654654603946</v>
+      </c>
+      <c r="G84">
+        <v>2.8861169658398469e-06</v>
+      </c>
+      <c r="H84">
+        <v>0.023715690722245854</v>
+      </c>
+      <c r="I84">
+        <v>5</v>
+      </c>
+      <c r="J84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="B85">
+        <v>0.18603291916449907</v>
+      </c>
+      <c r="C85">
+        <v>0.086613760714513058</v>
+      </c>
+      <c r="D85">
+        <v>0.014605563813025644</v>
+      </c>
+      <c r="E85">
+        <v>0.18304520519039927</v>
+      </c>
+      <c r="F85">
+        <v>0.2012578142462913</v>
+      </c>
+      <c r="G85">
+        <v>0.30939648824698929</v>
+      </c>
+      <c r="H85">
+        <v>0.019048248624282477</v>
+      </c>
+      <c r="I85">
+        <v>6</v>
+      </c>
+      <c r="J85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="B86">
+        <v>0.0087414946912780789</v>
+      </c>
+      <c r="C86">
+        <v>0.0073651652974351806</v>
+      </c>
+      <c r="D86">
+        <v>0.0015771222482279482</v>
+      </c>
+      <c r="E86">
+        <v>0.014037972420414832</v>
+      </c>
+      <c r="F86">
+        <v>0.80076581698286997</v>
+      </c>
+      <c r="G86">
+        <v>0.16663936105293953</v>
+      </c>
+      <c r="H86">
+        <v>0.00087306730683443291</v>
+      </c>
+      <c r="I86">
+        <v>5</v>
+      </c>
+      <c r="J86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="B87">
+        <v>0.0068974443930854322</v>
+      </c>
+      <c r="C87">
+        <v>0.012307828273406471</v>
+      </c>
+      <c r="D87">
+        <v>0.0012621451536331022</v>
+      </c>
+      <c r="E87">
+        <v>0.0059172711832538296</v>
+      </c>
+      <c r="F87">
+        <v>0.94167241094562948</v>
+      </c>
+      <c r="G87">
+        <v>0.031702477277143343</v>
+      </c>
+      <c r="H87">
+        <v>0.00024042277384840133</v>
+      </c>
+      <c r="I87">
+        <v>5</v>
+      </c>
+      <c r="J87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="9" t="s">
+        <v>599</v>
+      </c>
+      <c r="B88">
+        <v>0.067435348941785433</v>
+      </c>
+      <c r="C88">
+        <v>0.028595984368576584</v>
+      </c>
+      <c r="D88">
+        <v>0.0017849309978897917</v>
+      </c>
+      <c r="E88">
+        <v>0.0041295672265745211</v>
+      </c>
+      <c r="F88">
+        <v>0.89412381817802589</v>
+      </c>
+      <c r="G88">
+        <v>0.0035425221444826825</v>
+      </c>
+      <c r="H88">
+        <v>0.00038782814266511995</v>
+      </c>
+      <c r="I88">
+        <v>5</v>
+      </c>
+      <c r="J88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="B89">
+        <v>0.0002635459040168114</v>
+      </c>
+      <c r="C89">
+        <v>0.00066363888597157185</v>
+      </c>
+      <c r="D89">
+        <v>0.0011107620100718819</v>
+      </c>
+      <c r="E89">
+        <v>0.00053984387128211593</v>
+      </c>
+      <c r="F89">
+        <v>0.99412224660549531</v>
+      </c>
+      <c r="G89">
+        <v>3.6365304905811423e-05</v>
+      </c>
+      <c r="H89">
+        <v>0.0032635974182564664</v>
+      </c>
+      <c r="I89">
+        <v>5</v>
+      </c>
+      <c r="J89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="B90">
+        <v>0.0007957416708527453</v>
+      </c>
+      <c r="C90">
+        <v>0.0013977308556337546</v>
+      </c>
+      <c r="D90">
+        <v>0.0012071781987368023</v>
+      </c>
+      <c r="E90">
+        <v>0.00010217208695897927</v>
+      </c>
+      <c r="F90">
+        <v>0.99535143390913761</v>
+      </c>
+      <c r="G90">
+        <v>8.3724855827677661e-05</v>
+      </c>
+      <c r="H90">
+        <v>0.0010620184228523175</v>
+      </c>
+      <c r="I90">
+        <v>5</v>
+      </c>
+      <c r="J90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="B91">
+        <v>0.0005431188689507707</v>
+      </c>
+      <c r="C91">
+        <v>0.00044260898367473714</v>
+      </c>
+      <c r="D91">
+        <v>0.0011909953462421958</v>
+      </c>
+      <c r="E91">
+        <v>0.0015603489627862691</v>
+      </c>
+      <c r="F91">
+        <v>0.99513227158406892</v>
+      </c>
+      <c r="G91">
+        <v>2.7979379984992894e-05</v>
+      </c>
+      <c r="H91">
+        <v>0.0011026768742921926</v>
+      </c>
+      <c r="I91">
+        <v>5</v>
+      </c>
+      <c r="J91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="B92">
+        <v>0.0022960601738241581</v>
+      </c>
+      <c r="C92">
+        <v>0.0095426722379932018</v>
+      </c>
+      <c r="D92">
+        <v>0.00098838655605814566</v>
+      </c>
+      <c r="E92">
+        <v>0.00075414234938995552</v>
+      </c>
+      <c r="F92">
+        <v>0.98461368288106965</v>
+      </c>
+      <c r="G92">
+        <v>0.0003928597029977528</v>
+      </c>
+      <c r="H92">
+        <v>0.0014121960986670659</v>
+      </c>
+      <c r="I92">
+        <v>5</v>
+      </c>
+      <c r="J92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="B93">
+        <v>0.0025081167102323199</v>
+      </c>
+      <c r="C93">
+        <v>0.0066429692022931903</v>
+      </c>
+      <c r="D93">
+        <v>0.0011814001774332131</v>
+      </c>
+      <c r="E93">
+        <v>0.1782699299276061</v>
+      </c>
+      <c r="F93">
+        <v>0.80682550979834444</v>
+      </c>
+      <c r="G93">
+        <v>0.0026856320472826919</v>
+      </c>
+      <c r="H93">
+        <v>0.0018864421368080353</v>
+      </c>
+      <c r="I93">
+        <v>5</v>
+      </c>
+      <c r="J93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="B94">
+        <v>0.00046451784432859929</v>
+      </c>
+      <c r="C94">
+        <v>0.00040292046967386325</v>
+      </c>
+      <c r="D94">
+        <v>0.0011374902096651916</v>
+      </c>
+      <c r="E94">
+        <v>0.0016758789534263869</v>
+      </c>
+      <c r="F94">
+        <v>0.99472127072646321</v>
+      </c>
+      <c r="G94">
+        <v>9.5687846292199629e-05</v>
+      </c>
+      <c r="H94">
+        <v>0.0015022339501504602</v>
+      </c>
+      <c r="I94">
+        <v>5</v>
+      </c>
+      <c r="J94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="B95">
+        <v>0.0032672997166249261</v>
+      </c>
+      <c r="C95">
+        <v>0.0061799267614446405</v>
+      </c>
+      <c r="D95">
+        <v>0.0016848890884689157</v>
+      </c>
+      <c r="E95">
+        <v>0.53833936752498202</v>
+      </c>
+      <c r="F95">
+        <v>0.44127897695662205</v>
+      </c>
+      <c r="G95">
+        <v>0.0078039493223940994</v>
+      </c>
+      <c r="H95">
+        <v>0.0014455906294635831</v>
+      </c>
+      <c r="I95">
+        <v>4</v>
+      </c>
+      <c r="J95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="B96">
+        <v>0.0026250986673841828</v>
+      </c>
+      <c r="C96">
+        <v>0.0038417204726459171</v>
+      </c>
+      <c r="D96">
+        <v>0.0012763567049750384</v>
+      </c>
+      <c r="E96">
+        <v>0.0061929853706392569</v>
+      </c>
+      <c r="F96">
+        <v>0.98225200284585956</v>
+      </c>
+      <c r="G96">
+        <v>0.0022908009150245006</v>
+      </c>
+      <c r="H96">
+        <v>0.0015210350234714108</v>
+      </c>
+      <c r="I96">
+        <v>5</v>
+      </c>
+      <c r="J96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="B97">
+        <v>0.0011810004402839453</v>
+      </c>
+      <c r="C97">
+        <v>0.00047787628162041819</v>
+      </c>
+      <c r="D97">
+        <v>0.0011403962696522332</v>
+      </c>
+      <c r="E97">
+        <v>0.00015360776955507092</v>
+      </c>
+      <c r="F97">
+        <v>0.98940260465207275</v>
+      </c>
+      <c r="G97">
+        <v>0.0073589844388156581</v>
+      </c>
+      <c r="H97">
+        <v>0.00028553014799986132</v>
+      </c>
+      <c r="I97">
+        <v>5</v>
+      </c>
+      <c r="J97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="B98">
+        <v>0.00060298627075898914</v>
+      </c>
+      <c r="C98">
+        <v>0.00019015181550306113</v>
+      </c>
+      <c r="D98">
+        <v>0.0010849093299189862</v>
+      </c>
+      <c r="E98">
+        <v>6.7609526135004904e-05</v>
+      </c>
+      <c r="F98">
+        <v>0.99407587872424452</v>
+      </c>
+      <c r="G98">
+        <v>3.647678617305572e-05</v>
+      </c>
+      <c r="H98">
+        <v>0.0039419875472663712</v>
+      </c>
+      <c r="I98">
+        <v>5</v>
+      </c>
+      <c r="J98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="B99">
+        <v>0.050910573554634464</v>
+      </c>
+      <c r="C99">
+        <v>0.030212235500309506</v>
+      </c>
+      <c r="D99">
+        <v>0.0052235960091041381</v>
+      </c>
+      <c r="E99">
+        <v>0.36103321335216015</v>
+      </c>
+      <c r="F99">
+        <v>0.51627036566000117</v>
+      </c>
+      <c r="G99">
+        <v>0.033264660335111523</v>
+      </c>
+      <c r="H99">
+        <v>0.0030853555886791355</v>
+      </c>
+      <c r="I99">
+        <v>5</v>
+      </c>
+      <c r="J99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="B100">
+        <v>0.0011627099791085378</v>
+      </c>
+      <c r="C100">
+        <v>0.0014919965380435923</v>
+      </c>
+      <c r="D100">
+        <v>0.0011645595596060695</v>
+      </c>
+      <c r="E100">
+        <v>0.0014456579316319725</v>
+      </c>
+      <c r="F100">
+        <v>0.99385531160976581</v>
+      </c>
+      <c r="G100">
+        <v>0.00054584200881835994</v>
+      </c>
+      <c r="H100">
+        <v>0.00033392237302567318</v>
+      </c>
+      <c r="I100">
+        <v>5</v>
+      </c>
+      <c r="J100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="B101">
+        <v>6.342145040632556e-05</v>
+      </c>
+      <c r="C101">
+        <v>0.0055585009434901845</v>
+      </c>
+      <c r="D101">
+        <v>0.0011071177675907292</v>
+      </c>
+      <c r="E101">
+        <v>1.9008739296531512e-08</v>
+      </c>
+      <c r="F101">
+        <v>0.018602763341733865</v>
+      </c>
+      <c r="G101">
+        <v>0.97450193078210512</v>
+      </c>
+      <c r="H101">
+        <v>0.00016624670593443029</v>
+      </c>
+      <c r="I101">
+        <v>6</v>
+      </c>
+      <c r="J101">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="B102">
+        <v>0.038726215120407491</v>
+      </c>
+      <c r="C102">
+        <v>0.064031983270198087</v>
+      </c>
+      <c r="D102">
+        <v>0.0049196011942266712</v>
+      </c>
+      <c r="E102">
+        <v>0.043701573800750848</v>
+      </c>
+      <c r="F102">
+        <v>0.0203635067712735</v>
+      </c>
+      <c r="G102">
+        <v>0.82296080903073832</v>
+      </c>
+      <c r="H102">
+        <v>0.0052963108124050046</v>
+      </c>
+      <c r="I102">
+        <v>6</v>
+      </c>
+      <c r="J102">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="B103">
+        <v>0.014052293021656894</v>
+      </c>
+      <c r="C103">
+        <v>0.050764768752555818</v>
+      </c>
+      <c r="D103">
+        <v>0.0093152145616690503</v>
+      </c>
+      <c r="E103">
+        <v>0.082343147130202854</v>
+      </c>
+      <c r="F103">
+        <v>0.063890819916013086</v>
+      </c>
+      <c r="G103">
+        <v>0.76010465509044112</v>
+      </c>
+      <c r="H103">
+        <v>0.01952910152746112</v>
+      </c>
+      <c r="I103">
+        <v>6</v>
+      </c>
+      <c r="J103">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="B104">
+        <v>9.1480195493375894e-05</v>
+      </c>
+      <c r="C104">
+        <v>0.00087571949328215813</v>
+      </c>
+      <c r="D104">
+        <v>0.0010465777793295574</v>
+      </c>
+      <c r="E104">
+        <v>0.0056306771029321261</v>
+      </c>
+      <c r="F104">
+        <v>1.5273979982712906e-05</v>
+      </c>
+      <c r="G104">
+        <v>0.99208503753320021</v>
+      </c>
+      <c r="H104">
+        <v>0.000255233915779837</v>
+      </c>
+      <c r="I104">
+        <v>6</v>
+      </c>
+      <c r="J104">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="B105">
+        <v>0.00049302555704451394</v>
+      </c>
+      <c r="C105">
+        <v>0.0064085214475734249</v>
+      </c>
+      <c r="D105">
+        <v>0.0010256330530620799</v>
+      </c>
+      <c r="E105">
+        <v>1.9598244103218542e-05</v>
+      </c>
+      <c r="F105">
+        <v>0.019252155505180023</v>
+      </c>
+      <c r="G105">
+        <v>0.96733535196021836</v>
+      </c>
+      <c r="H105">
+        <v>0.005465714232818315</v>
+      </c>
+      <c r="I105">
+        <v>6</v>
+      </c>
+      <c r="J105">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="B106">
+        <v>0.00028784239762370812</v>
+      </c>
+      <c r="C106">
+        <v>0.014882317195998022</v>
+      </c>
+      <c r="D106">
+        <v>0.0013953191067738967</v>
+      </c>
+      <c r="E106">
+        <v>0.00011562752570758504</v>
+      </c>
+      <c r="F106">
+        <v>0.062272395565202164</v>
+      </c>
+      <c r="G106">
+        <v>0.91586972830886981</v>
+      </c>
+      <c r="H106">
+        <v>0.0051767698998248408</v>
+      </c>
+      <c r="I106">
+        <v>6</v>
+      </c>
+      <c r="J106">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="B107">
+        <v>0.0014475675321250973</v>
+      </c>
+      <c r="C107">
+        <v>0.0040781485371225498</v>
+      </c>
+      <c r="D107">
+        <v>0.0011845719023023168</v>
+      </c>
+      <c r="E107">
+        <v>0.00063782082657777475</v>
+      </c>
+      <c r="F107">
+        <v>0.00033674876706642155</v>
+      </c>
+      <c r="G107">
+        <v>0.99184423293606871</v>
+      </c>
+      <c r="H107">
+        <v>0.00047090949873716673</v>
+      </c>
+      <c r="I107">
+        <v>6</v>
+      </c>
+      <c r="J107">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="B108">
+        <v>0.00017767225101293708</v>
+      </c>
+      <c r="C108">
+        <v>0.00140590047315382</v>
+      </c>
+      <c r="D108">
+        <v>0.0015248384161225901</v>
+      </c>
+      <c r="E108">
+        <v>0.0011038568595446311</v>
+      </c>
+      <c r="F108">
+        <v>0.001185989016227125</v>
+      </c>
+      <c r="G108">
+        <v>0.9939553387284713</v>
+      </c>
+      <c r="H108">
+        <v>0.00064640425546762009</v>
+      </c>
+      <c r="I108">
+        <v>6</v>
+      </c>
+      <c r="J108">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="B109">
+        <v>0.0010932621240859371</v>
+      </c>
+      <c r="C109">
+        <v>0.0010361991978230071</v>
+      </c>
+      <c r="D109">
+        <v>0.0014181321989186677</v>
+      </c>
+      <c r="E109">
+        <v>9.4535669978679996e-06</v>
+      </c>
+      <c r="F109">
+        <v>0.00030591234448262367</v>
+      </c>
+      <c r="G109">
+        <v>0.99485413225124575</v>
+      </c>
+      <c r="H109">
+        <v>0.0012829083164462782</v>
+      </c>
+      <c r="I109">
+        <v>6</v>
+      </c>
+      <c r="J109">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="B110">
+        <v>0.00012367477057607392</v>
+      </c>
+      <c r="C110">
+        <v>0.00056396125369943795</v>
+      </c>
+      <c r="D110">
+        <v>0.001353336589857595</v>
+      </c>
+      <c r="E110">
+        <v>0.0011809509618036236</v>
+      </c>
+      <c r="F110">
+        <v>0.00043057555728644707</v>
+      </c>
+      <c r="G110">
+        <v>0.99549036929398882</v>
+      </c>
+      <c r="H110">
+        <v>0.000857131572788107</v>
+      </c>
+      <c r="I110">
+        <v>6</v>
+      </c>
+      <c r="J110">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="B111">
+        <v>0.00015701853529514369</v>
+      </c>
+      <c r="C111">
+        <v>0.001122221670040578</v>
+      </c>
+      <c r="D111">
+        <v>0.0013728580775734037</v>
+      </c>
+      <c r="E111">
+        <v>0.0010194842709711053</v>
+      </c>
+      <c r="F111">
+        <v>0.00077724463129613479</v>
+      </c>
+      <c r="G111">
+        <v>0.99481249287438378</v>
+      </c>
+      <c r="H111">
+        <v>0.00073867994043981696</v>
+      </c>
+      <c r="I111">
+        <v>6</v>
+      </c>
+      <c r="J111">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="B112">
+        <v>0.010716449711072508</v>
+      </c>
+      <c r="C112">
+        <v>0.0084470303440562604</v>
+      </c>
+      <c r="D112">
+        <v>0.0022021846135123579</v>
+      </c>
+      <c r="E112">
+        <v>0.00095828179743959413</v>
+      </c>
+      <c r="F112">
+        <v>0.2479935582384146</v>
+      </c>
+      <c r="G112">
+        <v>0.72852055994900278</v>
+      </c>
+      <c r="H112">
+        <v>0.0011619353465020014</v>
+      </c>
+      <c r="I112">
+        <v>6</v>
+      </c>
+      <c r="J112">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="B113">
+        <v>0.0093518907508951671</v>
+      </c>
+      <c r="C113">
+        <v>0.023849737131322501</v>
+      </c>
+      <c r="D113">
+        <v>0.0046353822201277888</v>
+      </c>
+      <c r="E113">
+        <v>0.0079117662792477315</v>
+      </c>
+      <c r="F113">
+        <v>0.10377945310283213</v>
+      </c>
+      <c r="G113">
+        <v>0.84932416957860157</v>
+      </c>
+      <c r="H113">
+        <v>0.0011476009369731101</v>
+      </c>
+      <c r="I113">
+        <v>6</v>
+      </c>
+      <c r="J113">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="B114">
+        <v>6.4757362258469387e-05</v>
+      </c>
+      <c r="C114">
+        <v>0.0014685077314353129</v>
+      </c>
+      <c r="D114">
+        <v>0.0012063064289502871</v>
+      </c>
+      <c r="E114">
+        <v>0.0005289261600524679</v>
+      </c>
+      <c r="F114">
+        <v>8.4227935571755042e-05</v>
+      </c>
+      <c r="G114">
+        <v>0.99567007052257617</v>
+      </c>
+      <c r="H114">
+        <v>0.00097720385915557226</v>
+      </c>
+      <c r="I114">
+        <v>6</v>
+      </c>
+      <c r="J114">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="B115">
+        <v>0.0030176615600182098</v>
+      </c>
+      <c r="C115">
+        <v>0.01009477230588106</v>
+      </c>
+      <c r="D115">
+        <v>0.0014337490967142594</v>
+      </c>
+      <c r="E115">
+        <v>0.014824344631311982</v>
+      </c>
+      <c r="F115">
+        <v>0.02600480960122821</v>
+      </c>
+      <c r="G115">
+        <v>0.94369767394688819</v>
+      </c>
+      <c r="H115">
+        <v>0.0009269888579581467</v>
+      </c>
+      <c r="I115">
+        <v>6</v>
+      </c>
+      <c r="J115">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="B116">
+        <v>0.0012020751101029226</v>
+      </c>
+      <c r="C116">
+        <v>0.0042472625387785798</v>
+      </c>
+      <c r="D116">
+        <v>0.0020695448351054197</v>
+      </c>
+      <c r="E116">
+        <v>0.011243039456484173</v>
+      </c>
+      <c r="F116">
+        <v>0.049440469946410534</v>
+      </c>
+      <c r="G116">
+        <v>0.93101587118347939</v>
+      </c>
+      <c r="H116">
+        <v>0.00078173692963891804</v>
+      </c>
+      <c r="I116">
+        <v>6</v>
+      </c>
+      <c r="J116">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="B117">
+        <v>4.9040337447834891e-05</v>
+      </c>
+      <c r="C117">
+        <v>0.0024730406400106952</v>
+      </c>
+      <c r="D117">
+        <v>0.0012708073888322772</v>
+      </c>
+      <c r="E117">
+        <v>0.00056497463894291094</v>
+      </c>
+      <c r="F117">
+        <v>0.0052306365982944126</v>
+      </c>
+      <c r="G117">
+        <v>0.9900887278130851</v>
+      </c>
+      <c r="H117">
+        <v>0.00032277258338689845</v>
+      </c>
+      <c r="I117">
+        <v>6</v>
+      </c>
+      <c r="J117">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="B118">
+        <v>0.00063685060310242749</v>
+      </c>
+      <c r="C118">
+        <v>0.0027503492562441787</v>
+      </c>
+      <c r="D118">
+        <v>0.0015415781780890542</v>
+      </c>
+      <c r="E118">
+        <v>0.00017742579745391837</v>
+      </c>
+      <c r="F118">
+        <v>0.018056902533130536</v>
+      </c>
+      <c r="G118">
+        <v>0.97602188454648453</v>
+      </c>
+      <c r="H118">
+        <v>0.00081500908549529758</v>
+      </c>
+      <c r="I118">
+        <v>6</v>
+      </c>
+      <c r="J118">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="B119">
+        <v>0.00038762010519696516</v>
+      </c>
+      <c r="C119">
+        <v>0.0048455928030511856</v>
+      </c>
+      <c r="D119">
+        <v>0.0011181205933984727</v>
+      </c>
+      <c r="E119">
+        <v>0.00010734647986482191</v>
+      </c>
+      <c r="F119">
+        <v>0.0062598932070606341</v>
+      </c>
+      <c r="G119">
+        <v>0.98651153382510748</v>
+      </c>
+      <c r="H119">
+        <v>0.00076989298632054617</v>
+      </c>
+      <c r="I119">
+        <v>6</v>
+      </c>
+      <c r="J119">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="B120">
+        <v>1.1435160595567511e-05</v>
+      </c>
+      <c r="C120">
+        <v>0.0020580307713171657</v>
+      </c>
+      <c r="D120">
+        <v>0.0006543131316295199</v>
+      </c>
+      <c r="E120">
+        <v>0.00010492178066620977</v>
+      </c>
+      <c r="F120">
+        <v>0.21361777173966348</v>
+      </c>
+      <c r="G120">
+        <v>0.78345419808901351</v>
+      </c>
+      <c r="H120">
+        <v>9.9329327114586676e-05</v>
+      </c>
+      <c r="I120">
+        <v>6</v>
+      </c>
+      <c r="J120">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="B121">
+        <v>0.0003924705229720718</v>
+      </c>
+      <c r="C121">
+        <v>0.0030975645700060976</v>
+      </c>
+      <c r="D121">
+        <v>0.0012346124155988155</v>
+      </c>
+      <c r="E121">
+        <v>0.0025256296526882066</v>
+      </c>
+      <c r="F121">
+        <v>0.075829420277692003</v>
+      </c>
+      <c r="G121">
+        <v>0.9165776096995577</v>
+      </c>
+      <c r="H121">
+        <v>0.00034269286148511211</v>
+      </c>
+      <c r="I121">
+        <v>6</v>
+      </c>
+      <c r="J121">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="B122">
+        <v>0.00014763085882855633</v>
+      </c>
+      <c r="C122">
+        <v>0.0014834840738544583</v>
+      </c>
+      <c r="D122">
+        <v>0.00098560982688345507</v>
+      </c>
+      <c r="E122">
+        <v>7.837503769718149e-08</v>
+      </c>
+      <c r="F122">
+        <v>9.5984435061369602e-05</v>
+      </c>
+      <c r="G122">
+        <v>0.99075474859872059</v>
+      </c>
+      <c r="H122">
+        <v>0.0065324638316137966</v>
+      </c>
+      <c r="I122">
+        <v>6</v>
+      </c>
+      <c r="J122">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="B123">
+        <v>0.00070507325864282641</v>
+      </c>
+      <c r="C123">
+        <v>0.0020528664022696173</v>
+      </c>
+      <c r="D123">
+        <v>0.0012445317719831138</v>
+      </c>
+      <c r="E123">
+        <v>0.0019158526409598759</v>
+      </c>
+      <c r="F123">
+        <v>0.00024122176331041952</v>
+      </c>
+      <c r="G123">
+        <v>0.99349245188336033</v>
+      </c>
+      <c r="H123">
+        <v>0.00034800227947390109</v>
+      </c>
+      <c r="I123">
+        <v>6</v>
+      </c>
+      <c r="J123">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="B124">
+        <v>0.00010611243797643724</v>
+      </c>
+      <c r="C124">
+        <v>0.00057334512412261557</v>
+      </c>
+      <c r="D124">
+        <v>0.00076246268185724091</v>
+      </c>
+      <c r="E124">
+        <v>4.9526516965888456e-06</v>
+      </c>
+      <c r="F124">
+        <v>0.039931288891302978</v>
+      </c>
+      <c r="G124">
+        <v>0.95774759372467877</v>
+      </c>
+      <c r="H124">
+        <v>0.00087424448836536739</v>
+      </c>
+      <c r="I124">
+        <v>6</v>
+      </c>
+      <c r="J124">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="B125">
+        <v>0.038580643447281383</v>
+      </c>
+      <c r="C125">
+        <v>0.053478720050226178</v>
+      </c>
+      <c r="D125">
+        <v>0.0048901102182280099</v>
+      </c>
+      <c r="E125">
+        <v>0.059728939690739967</v>
+      </c>
+      <c r="F125">
+        <v>0.0053647718172652927</v>
+      </c>
+      <c r="G125">
+        <v>0.00093495248331232079</v>
+      </c>
+      <c r="H125">
+        <v>0.83702186229294684</v>
+      </c>
+      <c r="I125">
+        <v>7</v>
+      </c>
+      <c r="J125">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="B126">
+        <v>0.22046022559273032</v>
+      </c>
+      <c r="C126">
+        <v>0.023112291771500815</v>
+      </c>
+      <c r="D126">
+        <v>0.0035631313031673105</v>
+      </c>
+      <c r="E126">
+        <v>0.019200716987274987</v>
+      </c>
+      <c r="F126">
+        <v>0.0015526360136060503</v>
+      </c>
+      <c r="G126">
+        <v>0.0012077268293141927</v>
+      </c>
+      <c r="H126">
+        <v>0.73090327150240619</v>
+      </c>
+      <c r="I126">
+        <v>7</v>
+      </c>
+      <c r="J126">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>